--- a/twin4build/test/data/configuration_template_Automation_paper_21space_2v_1h_0c.xlsx
+++ b/twin4build/test/data/configuration_template_Automation_paper_21space_2v_1h_0c.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="98" documentId="8_{13D1D8A8-7978-4B67-B116-50BC5F342752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E37B70CB-AEFF-46B3-969B-F1BB90A4D5F9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
   </bookViews>
   <sheets>
     <sheet name="Systems" sheetId="3" r:id="rId1"/>
@@ -863,7 +863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EEF019-D7A4-42FF-B5C0-3702855A99F7}">
   <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -26559,7 +26559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A747EB8B-49DD-40FE-8CAD-B5A7A33DF8B7}">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="E15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
@@ -32472,7 +32472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F9D35B-B713-4EC3-BA55-A4EE8F2F331C}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -48562,7 +48562,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66702,7 +66702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2999C7-12DB-42EA-8FDC-B5FA87CE6F00}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
